--- a/docs/designs/Burndown_flowEditor.xlsx
+++ b/docs/designs/Burndown_flowEditor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A2435F-5992-404F-822B-264A51426404}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9993F1E-5A32-477F-BC32-A9C0744C8A50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>Asigned</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>weekend</t>
   </si>
   <si>
-    <t>Blackbook design</t>
-  </si>
-  <si>
     <t>Excel design</t>
   </si>
   <si>
@@ -334,6 +328,12 @@
   </si>
   <si>
     <t>MS code</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Black book design</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2062,7 @@
       <calculatedColumnFormula>B20+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{428E28ED-3A5D-4400-816D-83AE8AA8FFBD}" name="Task" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Asigned" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Assigned" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{5CE22786-243A-459A-9777-0402AB471551}" name="Done" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{45BCF3FC-EDAA-400A-AC2A-4A74CB2CA099}" name="Tested" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{C3F4C3B0-DD36-47A4-8008-ED4DA11AF099}" name="Verified" dataDxfId="7"/>
@@ -2411,7 +2411,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2428,7 @@
     <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2436,37 +2436,37 @@
     <row r="1" spans="13:25" x14ac:dyDescent="0.25">
       <c r="M1" s="30"/>
       <c r="N1" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="S1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="Y1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="13:25" x14ac:dyDescent="0.25">
@@ -2484,23 +2484,23 @@
         <f>DATEDIF(O2,P2,"d")+1</f>
         <v>3</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="22" t="e">
         <f ca="1">DATEDIF(O3,P2,"d")</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="S2" s="15">
         <f>I46/Q2</f>
         <v>23</v>
       </c>
-      <c r="T2" s="46">
+      <c r="T2" s="46" t="e">
         <f ca="1">((Q2-R2)*S2) -sprint1_done</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X2" s="1">
         <v>2</v>
@@ -2512,11 +2512,11 @@
     </row>
     <row r="3" spans="13:25" x14ac:dyDescent="0.25">
       <c r="N3" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" s="21">
         <f ca="1">NOW()</f>
-        <v>43534.711097916668</v>
+        <v>43537.319234490744</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="2"/>
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X3" s="1">
         <f>V3*5-0.1</f>
@@ -2538,22 +2538,22 @@
     </row>
     <row r="4" spans="13:25" x14ac:dyDescent="0.25">
       <c r="M4" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="R4" s="31" t="s">
         <v>12</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>13</v>
       </c>
       <c r="S4" s="31" t="s">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X4" s="1">
         <f>X3+X2+X3</f>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X5" s="1">
         <f>(X3+X2) + (X3+X2) + X3</f>
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X6" s="1">
         <f>(X3+X2) + (X3+X2) + (X3+X2)+  X3</f>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
@@ -2960,13 +2960,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>1</v>
@@ -2983,19 +2983,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3004,19 +3004,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3025,19 +3025,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3046,19 +3046,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3067,19 +3067,19 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3088,19 +3088,19 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3109,19 +3109,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3130,19 +3130,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -3151,19 +3151,19 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3172,19 +3172,19 @@
         <v>10</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3193,19 +3193,19 @@
         <v>11</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3214,19 +3214,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3235,19 +3235,19 @@
         <v>13</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3256,19 +3256,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3277,19 +3277,19 @@
         <v>15</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3298,19 +3298,19 @@
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3319,19 +3319,19 @@
         <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3340,19 +3340,19 @@
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3361,19 +3361,19 @@
         <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3382,19 +3382,19 @@
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3403,19 +3403,19 @@
         <v>19</v>
       </c>
       <c r="C41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="G41" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3424,19 +3424,19 @@
         <v>20</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3445,19 +3445,19 @@
         <v>21</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3468,10 +3468,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1">
-        <f>COUNTIF(Table1[Asigned],"na")</f>
+        <f>COUNTIF(Table1[Assigned],"na")</f>
         <v>1</v>
       </c>
       <c r="E45" s="1">
@@ -3490,13 +3490,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3510,7 +3510,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="1">
-        <f>COUNTA(Table1[Asigned])-D45</f>
+        <f>COUNTA(Table1[Assigned])-D45</f>
         <v>22</v>
       </c>
       <c r="E46" s="1">
@@ -3615,60 +3615,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +3681,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,137 +3692,137 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3846,35 +3846,35 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
